--- a/example/batchConvert/前端表/module.xlsx
+++ b/example/batchConvert/前端表/module.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyi/splan-git/xlsx-fbs/example/batchConvert/前端表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A4D7711-3168-5149-8DDF-9AAADD639965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB167DF8-E500-C24C-B49E-8A2FC6D10622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32280" yWindow="2860" windowWidth="27700" windowHeight="16860" activeTab="1" xr2:uid="{25C3B18A-8590-694F-8FC0-E6C9B69D0E5D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,34 @@
   </si>
   <si>
     <t>0-全屏面板 1-弹窗 2-悬浮窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,114 +560,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B996FB9-E9EF-DF40-AFFA-604BEC134867}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2</v>
       </c>
     </row>
@@ -651,10 +697,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2599A55D-F3AF-2642-BEB5-8EF2E08C356F}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -723,6 +769,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example/batchConvert/前端表/module.xlsx
+++ b/example/batchConvert/前端表/module.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyi/splan-git/xlsx-fbs/example/batchConvert/前端表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB167DF8-E500-C24C-B49E-8A2FC6D10622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E19C424-6639-7148-AC60-EF4746D7219C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32280" yWindow="2860" windowWidth="27700" windowHeight="16860" activeTab="1" xr2:uid="{25C3B18A-8590-694F-8FC0-E6C9B69D0E5D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="module" sheetId="1" r:id="rId1"/>
+    <sheet name="property" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -700,7 +700,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:G14"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/example/batchConvert/前端表/module.xlsx
+++ b/example/batchConvert/前端表/module.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyi/splan-git/xlsx-fbs/example/batchConvert/前端表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E19C424-6639-7148-AC60-EF4746D7219C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6702C2EA-8118-5640-A992-55F9381F09C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32280" yWindow="2860" windowWidth="27700" windowHeight="16860" activeTab="1" xr2:uid="{25C3B18A-8590-694F-8FC0-E6C9B69D0E5D}"/>
   </bookViews>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>className</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,6 +172,10 @@
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -637,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -657,16 +657,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -674,16 +674,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -700,7 +700,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -724,10 +724,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -735,10 +735,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -746,16 +746,16 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -763,21 +763,21 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
